--- a/sources.xlsx
+++ b/sources.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$63</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="88">
   <si>
     <t>Source</t>
   </si>
@@ -241,9 +244,6 @@
   </si>
   <si>
     <t>n</t>
-  </si>
-  <si>
-    <t>not sure why</t>
   </si>
   <si>
     <t>redirects request</t>
@@ -317,18 +317,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -361,7 +355,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -709,10 +703,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -756,7 +751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" hidden="1">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -767,7 +762,7 @@
         <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -785,11 +780,17 @@
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -800,7 +801,7 @@
         <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -814,7 +815,7 @@
         <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -828,7 +829,7 @@
         <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -842,7 +843,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -853,7 +854,7 @@
         <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -867,7 +868,7 @@
         <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -881,7 +882,7 @@
         <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -897,7 +898,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
         <v>72</v>
@@ -917,7 +918,7 @@
         <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -953,7 +954,7 @@
         <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -967,7 +968,7 @@
         <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -981,7 +982,7 @@
         <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -995,10 +996,10 @@
         <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s">
         <v>29</v>
@@ -1062,7 +1063,7 @@
         <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s">
         <v>29</v>
@@ -1079,7 +1080,7 @@
         <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -1099,7 +1100,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" hidden="1">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1141,7 +1142,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" hidden="1">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1166,7 +1167,7 @@
         <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G32" t="s">
         <v>29</v>
@@ -1183,7 +1184,7 @@
         <v>72</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s">
         <v>29</v>
@@ -1203,7 +1204,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" hidden="1">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1231,7 +1232,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" hidden="1">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1245,7 +1246,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" hidden="1">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1270,7 +1271,7 @@
         <v>72</v>
       </c>
       <c r="D39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s">
         <v>29</v>
@@ -1287,13 +1288,13 @@
         <v>72</v>
       </c>
       <c r="D40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" hidden="1">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1307,7 +1308,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" hidden="1">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1332,13 +1333,13 @@
         <v>72</v>
       </c>
       <c r="D43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" hidden="1">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -1363,7 +1364,7 @@
         <v>72</v>
       </c>
       <c r="D45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I45" t="s">
         <v>29</v>
@@ -1380,13 +1381,13 @@
         <v>72</v>
       </c>
       <c r="D46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I46" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" hidden="1">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -1400,9 +1401,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" hidden="1">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B48" t="s">
         <v>73</v>
@@ -1425,7 +1426,7 @@
         <v>72</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I49" t="s">
         <v>29</v>
@@ -1456,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="D51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I51" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" hidden="1">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -1476,7 +1477,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" hidden="1">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -1494,6 +1495,12 @@
       <c r="A54" t="s">
         <v>59</v>
       </c>
+      <c r="B54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" t="s">
+        <v>72</v>
+      </c>
       <c r="J54" t="s">
         <v>29</v>
       </c>
@@ -1502,6 +1509,15 @@
       <c r="A55" t="s">
         <v>60</v>
       </c>
+      <c r="B55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" t="s">
+        <v>78</v>
+      </c>
       <c r="J55" t="s">
         <v>29</v>
       </c>
@@ -1510,6 +1526,12 @@
       <c r="A56" t="s">
         <v>61</v>
       </c>
+      <c r="B56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" t="s">
+        <v>72</v>
+      </c>
       <c r="J56" t="s">
         <v>29</v>
       </c>
@@ -1518,6 +1540,15 @@
       <c r="A57" t="s">
         <v>62</v>
       </c>
+      <c r="B57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" t="s">
+        <v>78</v>
+      </c>
       <c r="J57" t="s">
         <v>29</v>
       </c>
@@ -1526,6 +1557,12 @@
       <c r="A58" t="s">
         <v>63</v>
       </c>
+      <c r="B58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" t="s">
+        <v>72</v>
+      </c>
       <c r="J58" t="s">
         <v>29</v>
       </c>
@@ -1534,6 +1571,12 @@
       <c r="A59" t="s">
         <v>64</v>
       </c>
+      <c r="B59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" t="s">
+        <v>72</v>
+      </c>
       <c r="J59" t="s">
         <v>29</v>
       </c>
@@ -1542,13 +1585,25 @@
       <c r="A60" t="s">
         <v>65</v>
       </c>
+      <c r="B60" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" t="s">
+        <v>72</v>
+      </c>
       <c r="J60" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" hidden="1">
       <c r="A61" t="s">
         <v>66</v>
+      </c>
+      <c r="B61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" t="s">
+        <v>73</v>
       </c>
       <c r="J61" t="s">
         <v>29</v>
@@ -1558,6 +1613,15 @@
       <c r="A62" t="s">
         <v>67</v>
       </c>
+      <c r="B62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62" t="s">
+        <v>78</v>
+      </c>
       <c r="J62" t="s">
         <v>29</v>
       </c>
@@ -1566,11 +1630,24 @@
       <c r="A63" t="s">
         <v>68</v>
       </c>
+      <c r="B63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
       <c r="J63" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C63">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="y"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/sources.xlsx
+++ b/sources.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$61</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="90">
   <si>
     <t>Source</t>
   </si>
@@ -126,9 +126,6 @@
     <t>SI</t>
   </si>
   <si>
-    <t>NBC Sports</t>
-  </si>
-  <si>
     <t>SB Nation</t>
   </si>
   <si>
@@ -192,15 +189,6 @@
     <t>People</t>
   </si>
   <si>
-    <t>US Magazine</t>
-  </si>
-  <si>
-    <t>PerezHilton</t>
-  </si>
-  <si>
-    <t>RadarOnline</t>
-  </si>
-  <si>
     <t>cNet</t>
   </si>
   <si>
@@ -286,6 +274,24 @@
   </si>
   <si>
     <t>some images are very small</t>
+  </si>
+  <si>
+    <t>In database</t>
+  </si>
+  <si>
+    <t>Discovery</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Fox Business</t>
+  </si>
+  <si>
+    <t>Perez Hilton</t>
+  </si>
+  <si>
+    <t>Us Weekly</t>
   </si>
 </sst>
 </file>
@@ -334,8 +340,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -357,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -366,6 +380,10 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -374,6 +392,10 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -704,944 +726,1088 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" hidden="1">
+      <c r="M1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" hidden="1">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" hidden="1">
+    </row>
+    <row r="5" spans="1:13" hidden="1">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
         <v>72</v>
       </c>
-      <c r="C6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" hidden="1">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" hidden="1">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
         <v>72</v>
       </c>
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>23</v>
       </c>
       <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
         <v>72</v>
       </c>
-      <c r="C18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="E19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" hidden="1">
+        <v>68</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1">
       <c r="A21" t="s">
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" t="s">
         <v>72</v>
       </c>
-      <c r="C23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
-      </c>
-      <c r="G24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
-      </c>
-      <c r="G26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="E26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" hidden="1">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
-      </c>
-      <c r="G29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" hidden="1">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" hidden="1">
+        <v>69</v>
+      </c>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="E32" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
-      </c>
-      <c r="H33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="I33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" hidden="1">
       <c r="A34" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
-      </c>
-      <c r="H34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" hidden="1">
+        <v>69</v>
+      </c>
+      <c r="I34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
-      </c>
-      <c r="H35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>68</v>
+      </c>
+      <c r="I35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" hidden="1">
       <c r="A36" t="s">
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
-      </c>
-      <c r="H36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" hidden="1">
+        <v>69</v>
+      </c>
+      <c r="I36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" hidden="1">
       <c r="A37" t="s">
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
-      </c>
-      <c r="H37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" hidden="1">
+        <v>69</v>
+      </c>
+      <c r="I37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
-      </c>
-      <c r="H38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="I38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D39" t="s">
-        <v>78</v>
-      </c>
-      <c r="H39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="I39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" hidden="1">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" t="s">
-        <v>78</v>
-      </c>
-      <c r="H40" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" hidden="1">
+        <v>69</v>
+      </c>
+      <c r="I40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
-      </c>
-      <c r="H41" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" hidden="1">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="I41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" hidden="1">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
-      </c>
-      <c r="H42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
-      </c>
-      <c r="H43" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" hidden="1">
+        <v>68</v>
+      </c>
+      <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="J43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C44" t="s">
-        <v>73</v>
-      </c>
-      <c r="I44" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" t="s">
+        <v>81</v>
+      </c>
+      <c r="J44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" hidden="1">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" t="s">
-        <v>84</v>
-      </c>
-      <c r="I45" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" hidden="1">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" t="s">
-        <v>85</v>
-      </c>
-      <c r="I46" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" hidden="1">
+        <v>69</v>
+      </c>
+      <c r="J46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>73</v>
-      </c>
-      <c r="I47" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" hidden="1">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" t="s">
+        <v>83</v>
+      </c>
+      <c r="J47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
-      </c>
-      <c r="I48" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>68</v>
+      </c>
+      <c r="J48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" t="s">
+        <v>74</v>
+      </c>
+      <c r="J49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" t="s">
         <v>55</v>
       </c>
-      <c r="B49" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49" t="s">
-        <v>87</v>
-      </c>
-      <c r="I49" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>68</v>
+      </c>
+      <c r="K50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="s">
         <v>56</v>
       </c>
-      <c r="B50" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" t="s">
-        <v>72</v>
-      </c>
-      <c r="I50" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D51" t="s">
-        <v>78</v>
-      </c>
-      <c r="I51" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" hidden="1">
+        <v>68</v>
+      </c>
+      <c r="E51" t="s">
+        <v>74</v>
+      </c>
+      <c r="K51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>73</v>
-      </c>
-      <c r="I52" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" hidden="1">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>68</v>
+      </c>
+      <c r="K52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C53" t="s">
-        <v>73</v>
-      </c>
-      <c r="I53" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" t="s">
+        <v>74</v>
+      </c>
+      <c r="K53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C54" t="s">
-        <v>72</v>
-      </c>
-      <c r="J54" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>69</v>
+      </c>
+      <c r="K54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D55" t="s">
-        <v>78</v>
-      </c>
-      <c r="J55" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>68</v>
+      </c>
+      <c r="K55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>72</v>
-      </c>
-      <c r="J56" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>68</v>
+      </c>
+      <c r="K56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" hidden="1">
       <c r="A57" t="s">
         <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>72</v>
-      </c>
-      <c r="D57" t="s">
-        <v>78</v>
-      </c>
-      <c r="J57" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>69</v>
+      </c>
+      <c r="K57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
         <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
-      </c>
-      <c r="J58" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" t="s">
+        <v>74</v>
+      </c>
+      <c r="K58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
         <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
-      </c>
-      <c r="J59" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>68</v>
+      </c>
+      <c r="K59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
-      </c>
-      <c r="J60" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" hidden="1">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>68</v>
+      </c>
+      <c r="M60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
-      </c>
-      <c r="J61" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>68</v>
+      </c>
+      <c r="I61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D62" t="s">
-        <v>78</v>
-      </c>
-      <c r="J62" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>68</v>
+      </c>
+      <c r="I62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>68</v>
       </c>
       <c r="J63" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C63">
+  <autoFilter ref="C1:C61">
     <filterColumn colId="0">
       <filters>
         <filter val="y"/>

--- a/sources.xlsx
+++ b/sources.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -298,7 +298,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -318,6 +318,14 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -367,9 +375,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -729,7 +739,7 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -960,7 +970,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
@@ -977,7 +987,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
@@ -991,7 +1001,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
@@ -1005,7 +1015,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B17" t="s">
@@ -1022,7 +1032,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B18" t="s">
@@ -1039,7 +1049,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B19" t="s">
@@ -1056,7 +1066,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B20" t="s">
@@ -1084,7 +1094,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B22" t="s">

--- a/sources.xlsx
+++ b/sources.xlsx
@@ -298,7 +298,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -318,14 +318,6 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -375,11 +367,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -739,7 +729,7 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A22" sqref="A14:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -970,7 +960,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
@@ -987,7 +977,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
@@ -1001,7 +991,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
@@ -1015,7 +1005,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17" t="s">
@@ -1032,7 +1022,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
       <c r="B18" t="s">
@@ -1049,7 +1039,7 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
         <v>24</v>
       </c>
       <c r="B19" t="s">
@@ -1066,7 +1056,7 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="3" t="s">
+      <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="B20" t="s">
@@ -1094,7 +1084,7 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="3" t="s">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
       <c r="B22" t="s">
